--- a/docs/StructureDefinition-VAAllergyIntoleranceVerification.xlsx
+++ b/docs/StructureDefinition-VAAllergyIntoleranceVerification.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1686" uniqueCount="327">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1688" uniqueCount="326">
   <si>
     <t>Path</t>
   </si>
@@ -323,253 +323,250 @@
     <t>Provenance.extension</t>
   </si>
   <si>
+    <t>extensions
+user content</t>
+  </si>
+  <si>
     <t xml:space="preserve">Extension
 </t>
   </si>
   <si>
-    <t>Extension</t>
-  </si>
-  <si>
-    <t>An Extension</t>
+    <t>Additional Content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the resource. In order to make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+  </si>
+  <si>
+    <t>DomainResource.extension</t>
+  </si>
+  <si>
+    <t>Provenance.modifierExtension</t>
+  </si>
+  <si>
+    <t>Extensions that cannot be ignored</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the resource, and that modifies the understanding of the element that contains it. Usually modifier elements provide negation or qualification. In order to make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.</t>
+  </si>
+  <si>
+    <t>DomainResource.modifierExtension</t>
+  </si>
+  <si>
+    <t>Provenance.target</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Resource)
+</t>
+  </si>
+  <si>
+    <t>Target Reference(s) (usually version specific)</t>
+  </si>
+  <si>
+    <t>The Reference(s) that were generated or updated by  the activity described in this resource. A provenance can point to more than one target if multiple resources were created/updated by the same activity.</t>
+  </si>
+  <si>
+    <t>Target references are usually version specific, but may not be, if a version has not been assigned or if the provenance information is part of the set of resources being maintained (i.e. a document). When using the RESTful API, the identity of the resource may not be known (especially not the version specific one); the client may either submit the resource first, and then the provenance, or it may submit both using a single transaction. See the notes on transaction for further discussion.</t>
+  </si>
+  <si>
+    <t>./outboundRelationship[isNormalActRelationship() and typeCode=SUBJ]/target  OR  ./participation[isNormalParticipation() and typeCode=SBJ]/role  OR  ./participation[isNormalParticipation() and typeCode=SBJ]/role[isNormalRole()]/player</t>
+  </si>
+  <si>
+    <t>Entity Created/Updated</t>
+  </si>
+  <si>
+    <t>what</t>
+  </si>
+  <si>
+    <t>AuditEvent.entity.reference</t>
+  </si>
+  <si>
+    <t>Provenance.period</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Period
+</t>
+  </si>
+  <si>
+    <t>When the activity occurred</t>
+  </si>
+  <si>
+    <t>The period during which the activity occurred.</t>
+  </si>
+  <si>
+    <t>The period can be a little arbitrary; where possible, the time should correspond to human assessment of the activity time.</t>
+  </si>
+  <si>
+    <t>./effectiveTime[type=IVL_TS]</t>
+  </si>
+  <si>
+    <t>Activity.startTime &amp; Activity.endTime</t>
+  </si>
+  <si>
+    <t>when.done</t>
+  </si>
+  <si>
+    <t>Provenance.recorded</t>
+  </si>
+  <si>
+    <t>VERIFICATION DATE/TIME</t>
+  </si>
+  <si>
+    <t xml:space="preserve">instant
+</t>
+  </si>
+  <si>
+    <t>Verification date/time</t>
+  </si>
+  <si>
+    <t>The date/time this allergy/adverse reaction has been verified.</t>
+  </si>
+  <si>
+    <t>This can be a little different from the time stamp on the resource if there is a delay between recording the event and updating the provenance and target resource.</t>
+  </si>
+  <si>
+    <t>PATIENT ALLERGIES @VERIFICATION DATE/TIME 120.8-20</t>
+  </si>
+  <si>
+    <t>unique(./participation[isNormalParticipation() and typeCode=AUT]/time[type=TS])</t>
+  </si>
+  <si>
+    <t>Activity.when</t>
+  </si>
+  <si>
+    <t>when.recorded</t>
+  </si>
+  <si>
+    <t>AuditEvent.recorded</t>
+  </si>
+  <si>
+    <t>Provenance.policy</t>
+  </si>
+  <si>
+    <t>Policy or plan the activity was defined by</t>
+  </si>
+  <si>
+    <t>Policy or plan the activity was defined by. Typically, a single activity may have multiple applicable policy documents, such as patient consent, guarantor funding, etc.</t>
+  </si>
+  <si>
+    <t>For example: Where an OAuth token authorizes, the unique identifier from the OAuth token is placed into the policy element Where a policy engine (e.g. XACML) holds policy logic, the unique policy identifier is placed into the policy element.</t>
+  </si>
+  <si>
+    <t>./inboundRelationship[isNormalActRelationship() and typeCode="SUBJ"]/source[isNormalAct and subsumes(POLICY, classCode) and moodCode=EVN]/text[typeCode='ED'/tel</t>
+  </si>
+  <si>
+    <t>AuditEvent.agent.policy</t>
+  </si>
+  <si>
+    <t>Provenance.location</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Location)
+</t>
+  </si>
+  <si>
+    <t>Where the activity occurred, if relevant</t>
+  </si>
+  <si>
+    <t>Where the activity occurred, if relevant.</t>
+  </si>
+  <si>
+    <t>unique(./participation[isNormalParticipation() and typeCode=LOC]/role[isNormalRole() and subsumes(SDLOC, classCode)]/player[isNormalEntity and classCode="LOC" and determinerCode="INST"]</t>
+  </si>
+  <si>
+    <t>Activity.location</t>
+  </si>
+  <si>
+    <t>where</t>
+  </si>
+  <si>
+    <t>AuditEvent.agent.location</t>
+  </si>
+  <si>
+    <t>Provenance.reason</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coding
+</t>
+  </si>
+  <si>
+    <t>Reason the activity is occurring</t>
+  </si>
+  <si>
+    <t>The reason that the activity was taking place.</t>
+  </si>
+  <si>
+    <t>The reason the activity took place.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/v3-PurposeOfUse</t>
+  </si>
+  <si>
+    <t>unique(./reasonCode)</t>
+  </si>
+  <si>
+    <t>Activity.Activity</t>
+  </si>
+  <si>
+    <t>why</t>
+  </si>
+  <si>
+    <t>AuditEvent.purposeOfEvent</t>
+  </si>
+  <si>
+    <t>Provenance.activity</t>
+  </si>
+  <si>
+    <t>Activity that occurred</t>
+  </si>
+  <si>
+    <t>An activity is something that occurs over a period of time and acts upon or with entities; it may include consuming, processing, transforming, modifying, relocating, using, or generating entities.</t>
+  </si>
+  <si>
+    <t>The activity that took place.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/provenance-activity-type</t>
+  </si>
+  <si>
+    <t>Act.code</t>
+  </si>
+  <si>
+    <t>Provenance.activity.id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
+</t>
+  </si>
+  <si>
+    <t>xml:id (or equivalent in JSON)</t>
+  </si>
+  <si>
+    <t>unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>Provenance.activity.extension</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. In order to make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
   </si>
   <si>
     <t xml:space="preserve">value:url}
 </t>
   </si>
   <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
     <t>open</t>
-  </si>
-  <si>
-    <t>DomainResource.extension</t>
-  </si>
-  <si>
-    <t>Provenance.modifierExtension</t>
-  </si>
-  <si>
-    <t>extensions
-user content</t>
-  </si>
-  <si>
-    <t>Extensions that cannot be ignored</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource, and that modifies the understanding of the element that contains it. Usually modifier elements provide negation or qualification. In order to make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
-    <t>DomainResource.modifierExtension</t>
-  </si>
-  <si>
-    <t>Provenance.target</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Resource)
-</t>
-  </si>
-  <si>
-    <t>Target Reference(s) (usually version specific)</t>
-  </si>
-  <si>
-    <t>The Reference(s) that were generated or updated by  the activity described in this resource. A provenance can point to more than one target if multiple resources were created/updated by the same activity.</t>
-  </si>
-  <si>
-    <t>Target references are usually version specific, but may not be, if a version has not been assigned or if the provenance information is part of the set of resources being maintained (i.e. a document). When using the RESTful API, the identity of the resource may not be known (especially not the version specific one); the client may either submit the resource first, and then the provenance, or it may submit both using a single transaction. See the notes on transaction for further discussion.</t>
-  </si>
-  <si>
-    <t>./outboundRelationship[isNormalActRelationship() and typeCode=SUBJ]/target  OR  ./participation[isNormalParticipation() and typeCode=SBJ]/role  OR  ./participation[isNormalParticipation() and typeCode=SBJ]/role[isNormalRole()]/player</t>
-  </si>
-  <si>
-    <t>Entity Created/Updated</t>
-  </si>
-  <si>
-    <t>what</t>
-  </si>
-  <si>
-    <t>AuditEvent.entity.reference</t>
-  </si>
-  <si>
-    <t>Provenance.period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Period
-</t>
-  </si>
-  <si>
-    <t>When the activity occurred</t>
-  </si>
-  <si>
-    <t>The period during which the activity occurred.</t>
-  </si>
-  <si>
-    <t>The period can be a little arbitrary; where possible, the time should correspond to human assessment of the activity time.</t>
-  </si>
-  <si>
-    <t>./effectiveTime[type=IVL_TS]</t>
-  </si>
-  <si>
-    <t>Activity.startTime &amp; Activity.endTime</t>
-  </si>
-  <si>
-    <t>when.done</t>
-  </si>
-  <si>
-    <t>Provenance.recorded</t>
-  </si>
-  <si>
-    <t>VERIFICATION DATE/TIME</t>
-  </si>
-  <si>
-    <t xml:space="preserve">instant
-</t>
-  </si>
-  <si>
-    <t>Verification date/time</t>
-  </si>
-  <si>
-    <t>The date/time this allergy/adverse reaction has been verified.</t>
-  </si>
-  <si>
-    <t>This can be a little different from the time stamp on the resource if there is a delay between recording the event and updating the provenance and target resource.</t>
-  </si>
-  <si>
-    <t>PATIENT ALLERGIES @VERIFICATION DATE/TIME 120.8-20</t>
-  </si>
-  <si>
-    <t>unique(./participation[isNormalParticipation() and typeCode=AUT]/time[type=TS])</t>
-  </si>
-  <si>
-    <t>Activity.when</t>
-  </si>
-  <si>
-    <t>when.recorded</t>
-  </si>
-  <si>
-    <t>AuditEvent.recorded</t>
-  </si>
-  <si>
-    <t>Provenance.policy</t>
-  </si>
-  <si>
-    <t>Policy or plan the activity was defined by</t>
-  </si>
-  <si>
-    <t>Policy or plan the activity was defined by. Typically, a single activity may have multiple applicable policy documents, such as patient consent, guarantor funding, etc.</t>
-  </si>
-  <si>
-    <t>For example: Where an OAuth token authorizes, the unique identifier from the OAuth token is placed into the policy element Where a policy engine (e.g. XACML) holds policy logic, the unique policy identifier is placed into the policy element.</t>
-  </si>
-  <si>
-    <t>./inboundRelationship[isNormalActRelationship() and typeCode="SUBJ"]/source[isNormalAct and subsumes(POLICY, classCode) and moodCode=EVN]/text[typeCode='ED'/tel</t>
-  </si>
-  <si>
-    <t>AuditEvent.agent.policy</t>
-  </si>
-  <si>
-    <t>Provenance.location</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Location)
-</t>
-  </si>
-  <si>
-    <t>Where the activity occurred, if relevant</t>
-  </si>
-  <si>
-    <t>Where the activity occurred, if relevant.</t>
-  </si>
-  <si>
-    <t>unique(./participation[isNormalParticipation() and typeCode=LOC]/role[isNormalRole() and subsumes(SDLOC, classCode)]/player[isNormalEntity and classCode="LOC" and determinerCode="INST"]</t>
-  </si>
-  <si>
-    <t>Activity.location</t>
-  </si>
-  <si>
-    <t>where</t>
-  </si>
-  <si>
-    <t>AuditEvent.agent.location</t>
-  </si>
-  <si>
-    <t>Provenance.reason</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coding
-</t>
-  </si>
-  <si>
-    <t>Reason the activity is occurring</t>
-  </si>
-  <si>
-    <t>The reason that the activity was taking place.</t>
-  </si>
-  <si>
-    <t>The reason the activity took place.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/v3-PurposeOfUse</t>
-  </si>
-  <si>
-    <t>unique(./reasonCode)</t>
-  </si>
-  <si>
-    <t>Activity.Activity</t>
-  </si>
-  <si>
-    <t>why</t>
-  </si>
-  <si>
-    <t>AuditEvent.purposeOfEvent</t>
-  </si>
-  <si>
-    <t>Provenance.activity</t>
-  </si>
-  <si>
-    <t>Activity that occurred</t>
-  </si>
-  <si>
-    <t>An activity is something that occurs over a period of time and acts upon or with entities; it may include consuming, processing, transforming, modifying, relocating, using, or generating entities.</t>
-  </si>
-  <si>
-    <t>The activity that took place.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/provenance-activity-type</t>
-  </si>
-  <si>
-    <t>Act.code</t>
-  </si>
-  <si>
-    <t>Provenance.activity.id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">string
-</t>
-  </si>
-  <si>
-    <t>xml:id (or equivalent in JSON)</t>
-  </si>
-  <si>
-    <t>unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
-    <t>Provenance.activity.extension</t>
-  </si>
-  <si>
-    <t>Additional Content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. In order to make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>Extensions are always sliced by (at least) url</t>
   </si>
   <si>
     <t>Element.extension</t>
@@ -2155,7 +2152,7 @@
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
-        <v>44</v>
+        <v>98</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
@@ -2174,15 +2171,17 @@
         <v>44</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="M9" s="2"/>
+        <v>101</v>
+      </c>
+      <c r="M9" t="s" s="2">
+        <v>102</v>
+      </c>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
         <v>44</v>
@@ -2219,14 +2218,16 @@
         <v>44</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AB9" s="2"/>
+        <v>44</v>
+      </c>
+      <c r="AB9" t="s" s="2">
+        <v>44</v>
+      </c>
       <c r="AC9" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>102</v>
+        <v>44</v>
       </c>
       <c r="AE9" t="s" s="2">
         <v>103</v>
@@ -2247,7 +2248,7 @@
         <v>44</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>44</v>
+        <v>96</v>
       </c>
       <c r="AL9" t="s" s="2">
         <v>44</v>
@@ -2265,7 +2266,7 @@
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
@@ -2284,16 +2285,16 @@
         <v>44</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K10" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="L10" t="s" s="2">
         <v>106</v>
       </c>
-      <c r="L10" t="s" s="2">
-        <v>107</v>
-      </c>
       <c r="M10" t="s" s="2">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
@@ -2343,7 +2344,7 @@
         <v>44</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>42</v>
@@ -2375,7 +2376,7 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
@@ -2398,16 +2399,16 @@
         <v>54</v>
       </c>
       <c r="J11" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="K11" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="L11" t="s" s="2">
         <v>111</v>
       </c>
-      <c r="K11" t="s" s="2">
+      <c r="M11" t="s" s="2">
         <v>112</v>
-      </c>
-      <c r="L11" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="M11" t="s" s="2">
-        <v>114</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" t="s" s="2">
@@ -2457,7 +2458,7 @@
         <v>44</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>53</v>
@@ -2475,21 +2476,21 @@
         <v>44</v>
       </c>
       <c r="AK11" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="AL11" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="AM11" t="s" s="2">
         <v>115</v>
       </c>
-      <c r="AL11" t="s" s="2">
+      <c r="AN11" t="s" s="2">
         <v>116</v>
-      </c>
-      <c r="AM11" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="AN11" t="s" s="2">
-        <v>118</v>
       </c>
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
@@ -2512,16 +2513,16 @@
         <v>44</v>
       </c>
       <c r="J12" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="K12" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="L12" t="s" s="2">
         <v>120</v>
       </c>
-      <c r="K12" t="s" s="2">
+      <c r="M12" t="s" s="2">
         <v>121</v>
-      </c>
-      <c r="L12" t="s" s="2">
-        <v>122</v>
-      </c>
-      <c r="M12" t="s" s="2">
-        <v>123</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" t="s" s="2">
@@ -2571,7 +2572,7 @@
         <v>44</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>42</v>
@@ -2589,13 +2590,13 @@
         <v>44</v>
       </c>
       <c r="AK12" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="AL12" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="AM12" t="s" s="2">
         <v>124</v>
-      </c>
-      <c r="AL12" t="s" s="2">
-        <v>125</v>
-      </c>
-      <c r="AM12" t="s" s="2">
-        <v>126</v>
       </c>
       <c r="AN12" t="s" s="2">
         <v>44</v>
@@ -2603,14 +2604,14 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
         <v>44</v>
       </c>
       <c r="D13" t="s" s="2">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E13" t="s" s="2">
         <v>53</v>
@@ -2628,16 +2629,16 @@
         <v>54</v>
       </c>
       <c r="J13" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="K13" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="L13" t="s" s="2">
         <v>129</v>
       </c>
-      <c r="K13" t="s" s="2">
+      <c r="M13" t="s" s="2">
         <v>130</v>
-      </c>
-      <c r="L13" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="M13" t="s" s="2">
-        <v>132</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
@@ -2687,7 +2688,7 @@
         <v>44</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>53</v>
@@ -2702,24 +2703,24 @@
         <v>44</v>
       </c>
       <c r="AJ13" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="AK13" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="AL13" t="s" s="2">
         <v>133</v>
       </c>
-      <c r="AK13" t="s" s="2">
+      <c r="AM13" t="s" s="2">
         <v>134</v>
       </c>
-      <c r="AL13" t="s" s="2">
+      <c r="AN13" t="s" s="2">
         <v>135</v>
-      </c>
-      <c r="AM13" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="AN13" t="s" s="2">
-        <v>137</v>
       </c>
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -2745,13 +2746,13 @@
         <v>66</v>
       </c>
       <c r="K14" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="L14" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="M14" t="s" s="2">
         <v>139</v>
-      </c>
-      <c r="L14" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="M14" t="s" s="2">
-        <v>141</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
@@ -2801,7 +2802,7 @@
         <v>44</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>42</v>
@@ -2819,7 +2820,7 @@
         <v>44</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="AL14" t="s" s="2">
         <v>44</v>
@@ -2828,12 +2829,12 @@
         <v>44</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -2856,13 +2857,13 @@
         <v>44</v>
       </c>
       <c r="J15" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="K15" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="L15" t="s" s="2">
         <v>145</v>
-      </c>
-      <c r="K15" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="L15" t="s" s="2">
-        <v>147</v>
       </c>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
@@ -2913,7 +2914,7 @@
         <v>44</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>42</v>
@@ -2931,21 +2932,21 @@
         <v>44</v>
       </c>
       <c r="AK15" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="AL15" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="AM15" t="s" s="2">
         <v>148</v>
       </c>
-      <c r="AL15" t="s" s="2">
+      <c r="AN15" t="s" s="2">
         <v>149</v>
-      </c>
-      <c r="AM15" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="AN15" t="s" s="2">
-        <v>151</v>
       </c>
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -2968,13 +2969,13 @@
         <v>44</v>
       </c>
       <c r="J16" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="K16" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="L16" t="s" s="2">
         <v>153</v>
-      </c>
-      <c r="K16" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="L16" t="s" s="2">
-        <v>155</v>
       </c>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
@@ -3004,10 +3005,10 @@
         <v>76</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="Z16" t="s" s="2">
         <v>44</v>
@@ -3025,7 +3026,7 @@
         <v>44</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>42</v>
@@ -3043,21 +3044,21 @@
         <v>44</v>
       </c>
       <c r="AK16" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="AL16" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="AM16" t="s" s="2">
         <v>158</v>
       </c>
-      <c r="AL16" t="s" s="2">
+      <c r="AN16" t="s" s="2">
         <v>159</v>
-      </c>
-      <c r="AM16" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="AN16" t="s" s="2">
-        <v>161</v>
       </c>
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -3080,13 +3081,13 @@
         <v>44</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
@@ -3116,60 +3117,60 @@
         <v>76</v>
       </c>
       <c r="X17" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="Y17" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="Z17" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA17" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB17" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC17" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD17" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE17" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="AF17" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG17" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="AH17" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI17" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ17" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AK17" t="s" s="2">
         <v>165</v>
       </c>
-      <c r="Y17" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="Z17" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA17" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB17" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC17" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD17" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE17" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="AF17" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG17" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="AH17" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI17" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AJ17" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AK17" t="s" s="2">
-        <v>167</v>
-      </c>
       <c r="AL17" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="AM17" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="AN17" t="s" s="2">
         <v>159</v>
-      </c>
-      <c r="AM17" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="AN17" t="s" s="2">
-        <v>161</v>
       </c>
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -3192,13 +3193,13 @@
         <v>44</v>
       </c>
       <c r="J18" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="K18" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="L18" t="s" s="2">
         <v>169</v>
-      </c>
-      <c r="K18" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="L18" t="s" s="2">
-        <v>171</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
@@ -3249,7 +3250,7 @@
         <v>44</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>42</v>
@@ -3267,7 +3268,7 @@
         <v>44</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="AL18" t="s" s="2">
         <v>44</v>
@@ -3281,11 +3282,11 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
@@ -3304,16 +3305,16 @@
         <v>44</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>175</v>
+        <v>100</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
@@ -3351,19 +3352,19 @@
         <v>44</v>
       </c>
       <c r="AA19" t="s" s="2">
-        <v>101</v>
+        <v>174</v>
       </c>
       <c r="AB19" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="AC19" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD19" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="AE19" t="s" s="2">
         <v>177</v>
-      </c>
-      <c r="AC19" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD19" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AE19" t="s" s="2">
-        <v>178</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>42</v>
@@ -3381,7 +3382,7 @@
         <v>44</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="AL19" t="s" s="2">
         <v>44</v>
@@ -3395,7 +3396,7 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -3421,16 +3422,16 @@
         <v>66</v>
       </c>
       <c r="K20" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="L20" t="s" s="2">
         <v>180</v>
       </c>
-      <c r="L20" t="s" s="2">
+      <c r="M20" t="s" s="2">
         <v>181</v>
       </c>
-      <c r="M20" t="s" s="2">
+      <c r="N20" t="s" s="2">
         <v>182</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>183</v>
       </c>
       <c r="O20" t="s" s="2">
         <v>44</v>
@@ -3479,25 +3480,25 @@
         <v>44</v>
       </c>
       <c r="AE20" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="AF20" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG20" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="AH20" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI20" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ20" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AK20" t="s" s="2">
         <v>184</v>
-      </c>
-      <c r="AF20" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG20" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="AH20" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI20" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AJ20" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AK20" t="s" s="2">
-        <v>185</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>44</v>
@@ -3511,7 +3512,7 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -3534,16 +3535,16 @@
         <v>54</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="K21" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="L21" t="s" s="2">
         <v>187</v>
       </c>
-      <c r="L21" t="s" s="2">
+      <c r="M21" t="s" s="2">
         <v>188</v>
-      </c>
-      <c r="M21" t="s" s="2">
-        <v>189</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
@@ -3593,25 +3594,25 @@
         <v>44</v>
       </c>
       <c r="AE21" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="AF21" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG21" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="AH21" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI21" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ21" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AK21" t="s" s="2">
         <v>190</v>
-      </c>
-      <c r="AF21" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG21" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="AH21" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI21" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AJ21" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AK21" t="s" s="2">
-        <v>191</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>44</v>
@@ -3625,7 +3626,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -3651,81 +3652,81 @@
         <v>72</v>
       </c>
       <c r="K22" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="L22" t="s" s="2">
         <v>193</v>
-      </c>
-      <c r="L22" t="s" s="2">
-        <v>194</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" t="s" s="2">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="O22" t="s" s="2">
         <v>44</v>
       </c>
       <c r="P22" s="2"/>
       <c r="Q22" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="R22" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S22" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T22" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U22" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V22" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W22" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="X22" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Y22" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Z22" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA22" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB22" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC22" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD22" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE22" t="s" s="2">
         <v>196</v>
       </c>
-      <c r="R22" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="S22" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="T22" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="U22" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="V22" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="W22" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="X22" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Y22" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Z22" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA22" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB22" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC22" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD22" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE22" t="s" s="2">
+      <c r="AF22" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG22" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="AH22" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI22" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ22" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AK22" t="s" s="2">
         <v>197</v>
-      </c>
-      <c r="AF22" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG22" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="AH22" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI22" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AJ22" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AK22" t="s" s="2">
-        <v>198</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>44</v>
@@ -3739,7 +3740,7 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -3762,17 +3763,17 @@
         <v>54</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="K23" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="L23" t="s" s="2">
         <v>200</v>
-      </c>
-      <c r="L23" t="s" s="2">
-        <v>201</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" t="s" s="2">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="O23" t="s" s="2">
         <v>44</v>
@@ -3821,25 +3822,25 @@
         <v>44</v>
       </c>
       <c r="AE23" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="AF23" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG23" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="AH23" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI23" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ23" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AK23" t="s" s="2">
         <v>203</v>
-      </c>
-      <c r="AF23" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG23" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="AH23" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI23" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AJ23" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AK23" t="s" s="2">
-        <v>204</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>44</v>
@@ -3853,7 +3854,7 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -3876,19 +3877,19 @@
         <v>54</v>
       </c>
       <c r="J24" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="K24" t="s" s="2">
         <v>206</v>
       </c>
-      <c r="K24" t="s" s="2">
+      <c r="L24" t="s" s="2">
         <v>207</v>
       </c>
-      <c r="L24" t="s" s="2">
+      <c r="M24" t="s" s="2">
         <v>208</v>
       </c>
-      <c r="M24" t="s" s="2">
+      <c r="N24" t="s" s="2">
         <v>209</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>210</v>
       </c>
       <c r="O24" t="s" s="2">
         <v>44</v>
@@ -3937,25 +3938,25 @@
         <v>44</v>
       </c>
       <c r="AE24" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="AF24" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG24" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="AH24" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI24" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ24" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AK24" t="s" s="2">
         <v>211</v>
-      </c>
-      <c r="AF24" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG24" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="AH24" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI24" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AJ24" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AK24" t="s" s="2">
-        <v>212</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>44</v>
@@ -3969,7 +3970,7 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -3992,19 +3993,19 @@
         <v>44</v>
       </c>
       <c r="J25" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="K25" t="s" s="2">
         <v>214</v>
       </c>
-      <c r="K25" t="s" s="2">
+      <c r="L25" t="s" s="2">
         <v>215</v>
       </c>
-      <c r="L25" t="s" s="2">
+      <c r="M25" t="s" s="2">
         <v>216</v>
       </c>
-      <c r="M25" t="s" s="2">
+      <c r="N25" t="s" s="2">
         <v>217</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>218</v>
       </c>
       <c r="O25" t="s" s="2">
         <v>44</v>
@@ -4053,7 +4054,7 @@
         <v>44</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>53</v>
@@ -4065,27 +4066,27 @@
         <v>44</v>
       </c>
       <c r="AI25" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="AJ25" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AK25" t="s" s="2">
         <v>219</v>
       </c>
-      <c r="AJ25" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AK25" t="s" s="2">
+      <c r="AL25" t="s" s="2">
         <v>220</v>
       </c>
-      <c r="AL25" t="s" s="2">
+      <c r="AM25" t="s" s="2">
         <v>221</v>
       </c>
-      <c r="AM25" t="s" s="2">
+      <c r="AN25" t="s" s="2">
         <v>222</v>
-      </c>
-      <c r="AN25" t="s" s="2">
-        <v>223</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4108,13 +4109,13 @@
         <v>44</v>
       </c>
       <c r="J26" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="K26" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="L26" t="s" s="2">
         <v>169</v>
-      </c>
-      <c r="K26" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="L26" t="s" s="2">
-        <v>171</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
@@ -4165,7 +4166,7 @@
         <v>44</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>42</v>
@@ -4183,7 +4184,7 @@
         <v>44</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>44</v>
@@ -4197,11 +4198,11 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
@@ -4220,16 +4221,16 @@
         <v>44</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>175</v>
+        <v>100</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
@@ -4279,7 +4280,7 @@
         <v>44</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>42</v>
@@ -4297,7 +4298,7 @@
         <v>44</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>44</v>
@@ -4311,11 +4312,11 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
@@ -4334,16 +4335,16 @@
         <v>54</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
@@ -4393,7 +4394,7 @@
         <v>44</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>42</v>
@@ -4425,7 +4426,7 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4448,16 +4449,16 @@
         <v>54</v>
       </c>
       <c r="J29" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="K29" t="s" s="2">
         <v>231</v>
       </c>
-      <c r="K29" t="s" s="2">
+      <c r="L29" t="s" s="2">
         <v>232</v>
       </c>
-      <c r="L29" t="s" s="2">
+      <c r="M29" t="s" s="2">
         <v>233</v>
-      </c>
-      <c r="M29" t="s" s="2">
-        <v>234</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
@@ -4486,11 +4487,11 @@
         <v>76</v>
       </c>
       <c r="X29" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="Y29" t="s" s="2">
         <v>235</v>
       </c>
-      <c r="Y29" t="s" s="2">
-        <v>236</v>
-      </c>
       <c r="Z29" t="s" s="2">
         <v>44</v>
       </c>
@@ -4507,7 +4508,7 @@
         <v>44</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>42</v>
@@ -4525,21 +4526,21 @@
         <v>44</v>
       </c>
       <c r="AK29" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="AL29" t="s" s="2">
         <v>237</v>
       </c>
-      <c r="AL29" t="s" s="2">
+      <c r="AM29" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AN29" t="s" s="2">
         <v>238</v>
-      </c>
-      <c r="AM29" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AN29" t="s" s="2">
-        <v>239</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4562,13 +4563,13 @@
         <v>54</v>
       </c>
       <c r="J30" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="K30" t="s" s="2">
         <v>241</v>
       </c>
-      <c r="K30" t="s" s="2">
+      <c r="L30" t="s" s="2">
         <v>242</v>
-      </c>
-      <c r="L30" t="s" s="2">
-        <v>243</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
@@ -4607,41 +4608,41 @@
         <v>44</v>
       </c>
       <c r="AA30" t="s" s="2">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="AB30" s="2"/>
       <c r="AC30" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD30" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="AE30" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="AF30" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="AG30" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="AH30" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI30" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ30" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AK30" t="s" s="2">
         <v>245</v>
       </c>
-      <c r="AE30" t="s" s="2">
-        <v>240</v>
-      </c>
-      <c r="AF30" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="AG30" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="AH30" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI30" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AJ30" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AK30" t="s" s="2">
+      <c r="AL30" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM30" t="s" s="2">
         <v>246</v>
-      </c>
-      <c r="AL30" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AM30" t="s" s="2">
-        <v>247</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>44</v>
@@ -4649,16 +4650,16 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B31" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="C31" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="D31" t="s" s="2">
         <v>248</v>
-      </c>
-      <c r="C31" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="D31" t="s" s="2">
-        <v>249</v>
       </c>
       <c r="E31" t="s" s="2">
         <v>53</v>
@@ -4676,13 +4677,13 @@
         <v>54</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="K31" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="L31" t="s" s="2">
         <v>250</v>
-      </c>
-      <c r="L31" t="s" s="2">
-        <v>251</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
@@ -4733,7 +4734,7 @@
         <v>44</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>53</v>
@@ -4748,16 +4749,16 @@
         <v>44</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="AK31" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="AL31" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM31" t="s" s="2">
         <v>246</v>
-      </c>
-      <c r="AL31" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AM31" t="s" s="2">
-        <v>247</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>44</v>
@@ -4765,7 +4766,7 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -4788,13 +4789,13 @@
         <v>44</v>
       </c>
       <c r="J32" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="K32" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="L32" t="s" s="2">
         <v>169</v>
-      </c>
-      <c r="K32" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="L32" t="s" s="2">
-        <v>171</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
@@ -4845,7 +4846,7 @@
         <v>44</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>42</v>
@@ -4863,7 +4864,7 @@
         <v>44</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>44</v>
@@ -4877,11 +4878,11 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
@@ -4900,16 +4901,16 @@
         <v>44</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>175</v>
+        <v>100</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
@@ -4947,19 +4948,19 @@
         <v>44</v>
       </c>
       <c r="AA33" t="s" s="2">
-        <v>101</v>
+        <v>174</v>
       </c>
       <c r="AB33" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="AC33" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD33" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="AE33" t="s" s="2">
         <v>177</v>
-      </c>
-      <c r="AC33" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD33" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AE33" t="s" s="2">
-        <v>178</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>42</v>
@@ -4977,7 +4978,7 @@
         <v>44</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>44</v>
@@ -4991,16 +4992,16 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
+        <v>253</v>
+      </c>
+      <c r="B34" t="s" s="2">
         <v>254</v>
       </c>
-      <c r="B34" t="s" s="2">
+      <c r="C34" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="D34" t="s" s="2">
         <v>255</v>
-      </c>
-      <c r="C34" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="D34" t="s" s="2">
-        <v>256</v>
       </c>
       <c r="E34" t="s" s="2">
         <v>42</v>
@@ -5018,13 +5019,13 @@
         <v>44</v>
       </c>
       <c r="J34" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="K34" t="s" s="2">
         <v>257</v>
       </c>
-      <c r="K34" t="s" s="2">
-        <v>258</v>
-      </c>
       <c r="L34" t="s" s="2">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
@@ -5075,7 +5076,7 @@
         <v>44</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>42</v>
@@ -5090,7 +5091,7 @@
         <v>44</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>96</v>
@@ -5107,7 +5108,7 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5130,16 +5131,16 @@
         <v>54</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="K35" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="L35" t="s" s="2">
         <v>261</v>
       </c>
-      <c r="L35" t="s" s="2">
+      <c r="M35" t="s" s="2">
         <v>262</v>
-      </c>
-      <c r="M35" t="s" s="2">
-        <v>263</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
@@ -5189,16 +5190,16 @@
         <v>44</v>
       </c>
       <c r="AE35" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="AF35" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG35" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="AH35" t="s" s="2">
         <v>264</v>
-      </c>
-      <c r="AF35" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG35" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="AH35" t="s" s="2">
-        <v>265</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>44</v>
@@ -5221,7 +5222,7 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5244,16 +5245,16 @@
         <v>54</v>
       </c>
       <c r="J36" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="K36" t="s" s="2">
         <v>267</v>
       </c>
-      <c r="K36" t="s" s="2">
+      <c r="L36" t="s" s="2">
         <v>268</v>
       </c>
-      <c r="L36" t="s" s="2">
+      <c r="M36" t="s" s="2">
         <v>269</v>
-      </c>
-      <c r="M36" t="s" s="2">
-        <v>270</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
@@ -5303,25 +5304,25 @@
         <v>44</v>
       </c>
       <c r="AE36" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="AF36" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG36" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="AH36" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI36" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ36" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AK36" t="s" s="2">
         <v>271</v>
-      </c>
-      <c r="AF36" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG36" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="AH36" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI36" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AJ36" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AK36" t="s" s="2">
-        <v>272</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>44</v>
@@ -5335,7 +5336,7 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5358,16 +5359,16 @@
         <v>54</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="K37" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="L37" t="s" s="2">
         <v>274</v>
       </c>
-      <c r="L37" t="s" s="2">
+      <c r="M37" t="s" s="2">
         <v>275</v>
-      </c>
-      <c r="M37" t="s" s="2">
-        <v>276</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
@@ -5417,7 +5418,7 @@
         <v>44</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>42</v>
@@ -5449,7 +5450,7 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5472,13 +5473,13 @@
         <v>44</v>
       </c>
       <c r="J38" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="K38" t="s" s="2">
         <v>279</v>
       </c>
-      <c r="K38" t="s" s="2">
+      <c r="L38" t="s" s="2">
         <v>280</v>
-      </c>
-      <c r="L38" t="s" s="2">
-        <v>281</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
@@ -5529,7 +5530,7 @@
         <v>44</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>42</v>
@@ -5547,7 +5548,7 @@
         <v>44</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>44</v>
@@ -5561,7 +5562,7 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -5584,13 +5585,13 @@
         <v>44</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="K39" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="L39" t="s" s="2">
         <v>284</v>
-      </c>
-      <c r="L39" t="s" s="2">
-        <v>285</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
@@ -5617,52 +5618,52 @@
         <v>44</v>
       </c>
       <c r="W39" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="X39" t="s" s="2">
         <v>286</v>
       </c>
-      <c r="X39" t="s" s="2">
+      <c r="Y39" t="s" s="2">
         <v>287</v>
       </c>
-      <c r="Y39" t="s" s="2">
+      <c r="Z39" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA39" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB39" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC39" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD39" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE39" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="AF39" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG39" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="AH39" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI39" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ39" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AK39" t="s" s="2">
         <v>288</v>
       </c>
-      <c r="Z39" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA39" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB39" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC39" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD39" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE39" t="s" s="2">
-        <v>283</v>
-      </c>
-      <c r="AF39" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG39" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="AH39" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI39" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AJ39" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AK39" t="s" s="2">
+      <c r="AL39" t="s" s="2">
         <v>289</v>
-      </c>
-      <c r="AL39" t="s" s="2">
-        <v>290</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>44</v>
@@ -5673,7 +5674,7 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -5696,16 +5697,16 @@
         <v>44</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="K40" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="L40" t="s" s="2">
         <v>292</v>
       </c>
-      <c r="L40" t="s" s="2">
+      <c r="M40" t="s" s="2">
         <v>293</v>
-      </c>
-      <c r="M40" t="s" s="2">
-        <v>294</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
@@ -5755,7 +5756,7 @@
         <v>44</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>42</v>
@@ -5767,27 +5768,27 @@
         <v>44</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AJ40" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AK40" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="AL40" t="s" s="2">
         <v>295</v>
       </c>
-      <c r="AL40" t="s" s="2">
+      <c r="AM40" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AN40" t="s" s="2">
         <v>296</v>
-      </c>
-      <c r="AM40" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AN40" t="s" s="2">
-        <v>297</v>
       </c>
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -5810,13 +5811,13 @@
         <v>44</v>
       </c>
       <c r="J41" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="K41" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="L41" t="s" s="2">
         <v>169</v>
-      </c>
-      <c r="K41" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="L41" t="s" s="2">
-        <v>171</v>
       </c>
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
@@ -5867,7 +5868,7 @@
         <v>44</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>42</v>
@@ -5885,7 +5886,7 @@
         <v>44</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>44</v>
@@ -5899,11 +5900,11 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
@@ -5922,16 +5923,16 @@
         <v>44</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>175</v>
+        <v>100</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
@@ -5981,7 +5982,7 @@
         <v>44</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>42</v>
@@ -5999,7 +6000,7 @@
         <v>44</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>44</v>
@@ -6013,11 +6014,11 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
@@ -6036,16 +6037,16 @@
         <v>54</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
@@ -6095,7 +6096,7 @@
         <v>44</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>42</v>
@@ -6127,7 +6128,7 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6153,10 +6154,10 @@
         <v>72</v>
       </c>
       <c r="K44" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="L44" t="s" s="2">
         <v>302</v>
-      </c>
-      <c r="L44" t="s" s="2">
-        <v>303</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
@@ -6183,63 +6184,63 @@
         <v>44</v>
       </c>
       <c r="W44" t="s" s="2">
+        <v>303</v>
+      </c>
+      <c r="X44" t="s" s="2">
         <v>304</v>
       </c>
-      <c r="X44" t="s" s="2">
+      <c r="Y44" t="s" s="2">
         <v>305</v>
       </c>
-      <c r="Y44" t="s" s="2">
+      <c r="Z44" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA44" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB44" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC44" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD44" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE44" t="s" s="2">
+        <v>300</v>
+      </c>
+      <c r="AF44" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="AG44" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="AH44" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI44" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ44" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AK44" t="s" s="2">
         <v>306</v>
       </c>
-      <c r="Z44" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA44" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB44" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC44" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD44" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE44" t="s" s="2">
-        <v>301</v>
-      </c>
-      <c r="AF44" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="AG44" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="AH44" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI44" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AJ44" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AK44" t="s" s="2">
+      <c r="AL44" t="s" s="2">
         <v>307</v>
       </c>
-      <c r="AL44" t="s" s="2">
+      <c r="AM44" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AN44" t="s" s="2">
         <v>308</v>
-      </c>
-      <c r="AM44" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AN44" t="s" s="2">
-        <v>309</v>
       </c>
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6262,16 +6263,16 @@
         <v>54</v>
       </c>
       <c r="J45" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="K45" t="s" s="2">
         <v>311</v>
       </c>
-      <c r="K45" t="s" s="2">
+      <c r="L45" t="s" s="2">
         <v>312</v>
       </c>
-      <c r="L45" t="s" s="2">
+      <c r="M45" t="s" s="2">
         <v>313</v>
-      </c>
-      <c r="M45" t="s" s="2">
-        <v>314</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
@@ -6321,7 +6322,7 @@
         <v>44</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>53</v>
@@ -6339,21 +6340,21 @@
         <v>44</v>
       </c>
       <c r="AK45" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="AL45" t="s" s="2">
         <v>315</v>
       </c>
-      <c r="AL45" t="s" s="2">
-        <v>316</v>
-      </c>
       <c r="AM45" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6379,13 +6380,13 @@
         <v>44</v>
       </c>
       <c r="K46" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="L46" t="s" s="2">
         <v>318</v>
       </c>
-      <c r="L46" t="s" s="2">
+      <c r="M46" t="s" s="2">
         <v>319</v>
-      </c>
-      <c r="M46" t="s" s="2">
-        <v>320</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
@@ -6435,7 +6436,7 @@
         <v>44</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>42</v>
@@ -6453,7 +6454,7 @@
         <v>44</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>44</v>
@@ -6467,7 +6468,7 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -6490,13 +6491,13 @@
         <v>44</v>
       </c>
       <c r="J47" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="K47" t="s" s="2">
         <v>323</v>
       </c>
-      <c r="K47" t="s" s="2">
+      <c r="L47" t="s" s="2">
         <v>324</v>
-      </c>
-      <c r="L47" t="s" s="2">
-        <v>325</v>
       </c>
       <c r="M47" s="2"/>
       <c r="N47" s="2"/>
@@ -6547,7 +6548,7 @@
         <v>44</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>42</v>
@@ -6565,7 +6566,7 @@
         <v>44</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>44</v>

--- a/docs/StructureDefinition-VAAllergyIntoleranceVerification.xlsx
+++ b/docs/StructureDefinition-VAAllergyIntoleranceVerification.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1688" uniqueCount="326">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1688" uniqueCount="327">
   <si>
     <t>Path</t>
   </si>
@@ -587,6 +587,9 @@
     <t>Need to be unambiguous about the source of the definition of the symbol.</t>
   </si>
   <si>
+    <t>http://terminology.hl7.org/CodeSystem/v3-ParticipationType</t>
+  </si>
+  <si>
     <t>Coding.system</t>
   </si>
   <si>
@@ -623,7 +626,7 @@
     <t>Need to refer to a particular code in the system.</t>
   </si>
   <si>
-    <t>verify</t>
+    <t>VRF</t>
   </si>
   <si>
     <t>Coding.code</t>
@@ -3394,7 +3397,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="20" hidden="true">
+    <row r="20">
       <c r="A20" t="s" s="2">
         <v>178</v>
       </c>
@@ -3410,7 +3413,7 @@
         <v>53</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>44</v>
@@ -3438,7 +3441,7 @@
       </c>
       <c r="P20" s="2"/>
       <c r="Q20" t="s" s="2">
-        <v>44</v>
+        <v>183</v>
       </c>
       <c r="R20" t="s" s="2">
         <v>44</v>
@@ -3480,7 +3483,7 @@
         <v>44</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>42</v>
@@ -3498,7 +3501,7 @@
         <v>44</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>44</v>
@@ -3512,7 +3515,7 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -3538,13 +3541,13 @@
         <v>167</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
@@ -3594,7 +3597,7 @@
         <v>44</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>42</v>
@@ -3612,7 +3615,7 @@
         <v>44</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>44</v>
@@ -3626,7 +3629,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -3652,21 +3655,21 @@
         <v>72</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="O22" t="s" s="2">
         <v>44</v>
       </c>
       <c r="P22" s="2"/>
       <c r="Q22" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="R22" t="s" s="2">
         <v>44</v>
@@ -3708,7 +3711,7 @@
         <v>44</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>42</v>
@@ -3726,7 +3729,7 @@
         <v>44</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>44</v>
@@ -3740,7 +3743,7 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -3766,14 +3769,14 @@
         <v>167</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="O23" t="s" s="2">
         <v>44</v>
@@ -3822,7 +3825,7 @@
         <v>44</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>42</v>
@@ -3840,7 +3843,7 @@
         <v>44</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>44</v>
@@ -3854,7 +3857,7 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -3877,19 +3880,19 @@
         <v>54</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="O24" t="s" s="2">
         <v>44</v>
@@ -3938,7 +3941,7 @@
         <v>44</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>42</v>
@@ -3956,7 +3959,7 @@
         <v>44</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>44</v>
@@ -3970,7 +3973,7 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -3993,19 +3996,19 @@
         <v>44</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="O25" t="s" s="2">
         <v>44</v>
@@ -4054,7 +4057,7 @@
         <v>44</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>53</v>
@@ -4066,27 +4069,27 @@
         <v>44</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AJ25" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4198,7 +4201,7 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4312,11 +4315,11 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
@@ -4341,7 +4344,7 @@
         <v>105</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="M28" t="s" s="2">
         <v>102</v>
@@ -4394,7 +4397,7 @@
         <v>44</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>42</v>
@@ -4426,7 +4429,7 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4449,16 +4452,16 @@
         <v>54</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
@@ -4487,10 +4490,10 @@
         <v>76</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Z29" t="s" s="2">
         <v>44</v>
@@ -4508,7 +4511,7 @@
         <v>44</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>42</v>
@@ -4526,21 +4529,21 @@
         <v>44</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4563,13 +4566,13 @@
         <v>54</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
@@ -4608,17 +4611,17 @@
         <v>44</v>
       </c>
       <c r="AA30" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="AB30" s="2"/>
       <c r="AC30" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD30" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>53</v>
@@ -4636,13 +4639,13 @@
         <v>44</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>44</v>
@@ -4650,16 +4653,16 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C31" t="s" s="2">
         <v>44</v>
       </c>
       <c r="D31" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="E31" t="s" s="2">
         <v>53</v>
@@ -4677,13 +4680,13 @@
         <v>54</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
@@ -4734,7 +4737,7 @@
         <v>44</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>53</v>
@@ -4749,16 +4752,16 @@
         <v>44</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>44</v>
@@ -4766,7 +4769,7 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -4878,7 +4881,7 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -4992,16 +4995,16 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C34" t="s" s="2">
         <v>44</v>
       </c>
       <c r="D34" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="E34" t="s" s="2">
         <v>42</v>
@@ -5019,13 +5022,13 @@
         <v>44</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
@@ -5091,7 +5094,7 @@
         <v>44</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>96</v>
@@ -5108,7 +5111,7 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5134,13 +5137,13 @@
         <v>167</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
@@ -5190,7 +5193,7 @@
         <v>44</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>42</v>
@@ -5199,7 +5202,7 @@
         <v>53</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>44</v>
@@ -5222,7 +5225,7 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5245,16 +5248,16 @@
         <v>54</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
@@ -5304,7 +5307,7 @@
         <v>44</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>42</v>
@@ -5322,7 +5325,7 @@
         <v>44</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>44</v>
@@ -5336,7 +5339,7 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5362,13 +5365,13 @@
         <v>167</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
@@ -5418,7 +5421,7 @@
         <v>44</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>42</v>
@@ -5450,7 +5453,7 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5473,13 +5476,13 @@
         <v>44</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
@@ -5530,7 +5533,7 @@
         <v>44</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>42</v>
@@ -5548,7 +5551,7 @@
         <v>44</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>44</v>
@@ -5562,7 +5565,7 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -5585,13 +5588,13 @@
         <v>44</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
@@ -5618,13 +5621,13 @@
         <v>44</v>
       </c>
       <c r="W39" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Z39" t="s" s="2">
         <v>44</v>
@@ -5642,7 +5645,7 @@
         <v>44</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>42</v>
@@ -5660,10 +5663,10 @@
         <v>44</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>44</v>
@@ -5674,7 +5677,7 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -5697,16 +5700,16 @@
         <v>44</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
@@ -5756,7 +5759,7 @@
         <v>44</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>42</v>
@@ -5768,27 +5771,27 @@
         <v>44</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AJ40" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -5900,7 +5903,7 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6014,11 +6017,11 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
@@ -6043,7 +6046,7 @@
         <v>105</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="M43" t="s" s="2">
         <v>102</v>
@@ -6096,7 +6099,7 @@
         <v>44</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>42</v>
@@ -6128,7 +6131,7 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6154,10 +6157,10 @@
         <v>72</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
@@ -6184,13 +6187,13 @@
         <v>44</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Z44" t="s" s="2">
         <v>44</v>
@@ -6208,7 +6211,7 @@
         <v>44</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>53</v>
@@ -6226,21 +6229,21 @@
         <v>44</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6263,16 +6266,16 @@
         <v>54</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
@@ -6322,7 +6325,7 @@
         <v>44</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>53</v>
@@ -6340,10 +6343,10 @@
         <v>44</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>44</v>
@@ -6354,7 +6357,7 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6380,13 +6383,13 @@
         <v>44</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
@@ -6436,7 +6439,7 @@
         <v>44</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>42</v>
@@ -6454,7 +6457,7 @@
         <v>44</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>44</v>
@@ -6468,7 +6471,7 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -6491,13 +6494,13 @@
         <v>44</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="M47" s="2"/>
       <c r="N47" s="2"/>
@@ -6548,7 +6551,7 @@
         <v>44</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>42</v>
@@ -6566,7 +6569,7 @@
         <v>44</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>44</v>
